--- a/biology/Botanique/Rose_du_désert/Rose_du_désert.xlsx
+++ b/biology/Botanique/Rose_du_désert/Rose_du_désert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rose_du_d%C3%A9sert</t>
+          <t>Rose_du_désert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenium obesum
 Adenium obesum (la Rose du désert) est une espèce de plantes à fleurs de la famille des Apocynaceae contenant plusieurs sous-espèces. Elle est aussi appelée Baobab chacal, Lis des Impalas, Sabi Star ou Kudu.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rose_du_d%C3%A9sert</t>
+          <t>Rose_du_désert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire d'une aire couvrant l'Afrique de l'Est et le sud de l'Arabie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rose_du_d%C3%A9sert</t>
+          <t>Rose_du_désert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenium obesum est une plante succulente pachycaule à feuillage persistant pouvant mesurer jusqu'à 3 mètres de haut et dont le tronc forme un caudex, sorte de très gros renflement gris-vert situé à la base du tronc qui sert d'organe de réserve.
 Ses nombreuses petites branches se terminent par quelques grandes feuilles charnues, mesurant de 5 à 15 cm de long et 1-8 cm de large disposées en spirales autour des rameaux. Elles sont difficiles à densifier car chaque nouvelle feuille est accompagnée de la chute d’une plus ancienne. En cas de conditions difficiles il perd ses feuilles pour se rendre plus résistant aux conditions extrêmes — peu de feuilles = peu d’évaporation, c’est une technique de survie en zone aride.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rose_du_d%C3%A9sert</t>
+          <t>Rose_du_désert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres membres de la famille des Apocynacées, tels que le laurier rose, la sève riche en alcaloïdes, est très toxique.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rose_du_d%C3%A9sert</t>
+          <t>Rose_du_désert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Adenium est une plante d'appartement populaire dans les régions tempérées.
 Elle a besoin d'un emplacement lumineux et de températures d'hiver ne descendant pas sous les 10 °C. Elle peut résister plusieurs jours à 0 °C à condition que la température diurne atteigne au moins 10 °C.
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rose_du_d%C3%A9sert</t>
+          <t>Rose_du_désert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,12 +663,14 @@
           <t>Liste des cultivars, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (22 décembre 2018)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (22 décembre 2018) :
 cultivar Adenium obesum 'Harry Potter'
 cultivar Adenium obesum 'Tao'
-Selon Catalogue of Life                                   (22 décembre 2018)[4] et Tropicos                                           (22 décembre 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Catalogue of Life                                   (22 décembre 2018) et Tropicos                                           (22 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Adenium obesum subsp. obesum originaire d'Arabie, aussi appelé faux baobab ou lis des impalas, dépasse rarement 2 mètres de haut et pousse lentement.
 Adenium obesum subsp. boehmianum (Schinz) G.D. Rowley. Origine Namibie, Angola
 Adenium obesum subsp. multiflorum Rowley
